--- a/data/outputs/final/final_report.xlsx
+++ b/data/outputs/final/final_report.xlsx
@@ -518,31 +518,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.57</v>
+        <v>0.542</v>
       </c>
       <c r="L2" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -574,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -583,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.49</v>
+        <v>0.526</v>
       </c>
       <c r="L3" t="n">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -679,28 +679,28 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>活動内容が具体的で、手順や教材、評価方法まで詳細に記述されている / スキル育成の項目が多岐にわたり、教育的意義が明確に示されている / 創造的なロックパズルと実際の製作活動が組み合わさり、実用性と独創性を兼ね備えている</t>
+          <t>定義が明確で正確に述べられている / 学生への影響が複数の具体例で詳細に説明されている / 論理的構成は整っているが、教育的意義の深掘りがやや不足</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>回答は、ロックパズルを用いた数の構造理解から、実際にロックを設計・製作するまでの一連の流れを明確に示している。各段階での具体的な指示や評価基準が記載され、活動の実用性と独創性が高い。さらに、論理的思考、問題解決、協働、創造性、技術操作といった多様なスキルを詳細に列挙し、教育的意義を具体的に説明しているため、5点の基準を満たす。</t>
+          <t>回答は「体験学習」の定義を具体的に説明し、学生の興味・モチベーション向上、批判的思考、協働・コミュニケーションスキルの発達、知識の実践的結びつきといった多面的な影響を示している。特に科学授業の具体例は説得力を高めている。論理的で一貫性があるが、教育的意義や学習成果への長期的インパクトについての分析がもう少し深くなると5点満点に近づく。</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.35</v>
+        <v>0.68</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>構造化が非常に整っており、序論・本論・結論の区分が明確に示されている点はAIが生成しやすいパターンです。また、定型表現（例：『Củng cố và khắc sâu kiến thức』、『Khơi gợi sự tò mò』など）が多用され、文体の均一性も高いです。さらに、具体例が他の学生と似た内容（同じ数式や例題）であるため、典型的なテンプレートに近いと判断できます。一方で、AI模範解答との類似度（0.22）と受験者同士の類似度（0.27）が低く、完全にAI生成と断定できるほどではないため、スコアは中程度（0.35）としました。</t>
+          <t>The response exhibits several AI‑like characteristics. It follows a rigid structure with a clear introduction, body and conclusion, and the transition phrases feel formulaic. Frequent use of generic positive wording such as "kết quả thực tế" and “được thực hành” aligns with common AI templates. The sentence lengths and vocabulary are relatively uniform, lacking the natural variation seen in human writing. Moreover, the concrete example of the science activity is a classic, textbook‑style illustration that many students tend to replicate, which is reflected in the peer similarity score. While not entirely machine‑generated, these patterns suggest a strong AI influence, justifying a score of about 0.68.</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -730,20 +730,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>定義が明確で正確に述べられている / 複数の具体例が詳細に示され、学生への影響が豊富に説明されている / 論理的な構成と一貫性が保たれ、教育的意義が十分に伝わっている</t>
+          <t>具体的で実用的な活動計画を示している / スキル育成の説明が詳細かつ明確 / 教育的意義がはっきりと示されている</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>受験者は「体験学習」の定義を「学習者が実際に体験し、実践・探究・反省を通じて学ぶ方法」と明確に示し、定義の正確さを確保した。さらに、学習者の興味・動機付け、批判的思考、協働・コミュニケーションスキルの向上といった具体的な影響を挙げ、科学授業での実際の実験活動を例に詳細に説明した。論理的に定義→影響→具体例という順序で構成され、全体の一貫性が高い。教育的意義として、知識の実践化と記憶の定着を強調し、体験学習の価値を十分に伝えている。これらの点から5点と評価した。</t>
+          <t>受験者はロックパズルを用いた実践的な授業を、具体的な段階と手順で示している。各フェーズ（ゲーム開始、観察・議論、設計・制作、評価）が明瞭に描かれ、活動全体の流れが一目で把握できる。また、論理的思考、仮説検証、チームワーク、創造的設計、計算スキルといった複数のスキルが明確に列挙され、各スキルがどのように育成されるかも細かく記述。さらに、数学知識の実生活への応用や協働学習の価値を教育的意義として具体例とともに示しており、全体として優れた回答と評価できる。</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>回答は序論・本論・結論が明確に区分され、箇条書きや見出しが多用されている点で構造化が過剰に感じられます。さらに、"学習者が自ら実験し、反省する"といった定型表現や「実践的」「具体的」「生きた知識」といったポジティブバイアスが頻出し、AIがよく使うフレーズに近いです。文体は比較的均一で、語彙の幅が限定的、文長もほぼ同じパターンが続くため、自然な人間の書き方よりも機械的に見えます。具体例として挙げられている「電気回路の実験」や「光の伝わり方」などは多くの学生が選びやすい典型的な内容で、peer_similarity_scoreも低いものの、AI模範解答との類似度が0.35と中程度であることから、テンプレート的なAI生成の可能性は高いと判断できます。</t>
+          <t>The response shows a relatively organized structure with clear subsections, but it contains many natural, student‑like elements (e.g., Vietnamese text, classroom context). It lacks the highly formulaic phrasing or perfect grammar typical of AI‑generated templates. The symbolic score of 1.0 indicates a high use of symbols and bullet points, a common feature in structured AI outputs, yet the overall wording and examples remain fairly typical and not strongly indicative of a template. The AI similarity score (0.22) and peer similarity (0.27) are modest, suggesting limited overlap with known AI or peer answers. Therefore, the likelihood of this being a template‑style AI response is moderate, around 0.35.</t>
         </is>
       </c>
     </row>
@@ -769,24 +769,24 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>授業計画が詳細で実践的 / 質問が具体的で思考を促す / 材料選定が適切で実用的</t>
+          <t>指導計画が具体的で授業プロセスが明確に示されているが、材料・道具の詳細がやや不足。 / 質問は具体的で思考を促すが、実験に必要な道具の詳細説明が欠けている。 / 実践的な指導と質問は良好だが、材料・道具面でやや抽象的なため4点と判断。</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>受験者の回答は、授業計画が具体的に示され、目的・活動・評価が明確に記述されている。質問は具体的で、学生の思考を誘導し、材料は実際に使えるものが挙げられている。全体として、STEAM教育の実践に即した優れた指導案となっている。</t>
+          <t>回答は指導計画を明確に示し、授業プロセスを具体的に記述している。目標設定から準備、実践、評価までの流れが詳細に説明されている点が高く評価できる。ただし、材料・道具に関しては「簡単な工具を使用し、チャーコの落下を防ぐ装置を作る」といった一般的な記述に留まっており、実際に使用する具体的な素材（ナイロン、棒、ワイヤー等）や手順の詳細が不足している。質問は具体的かつ思考を刺激する内容が多く、授業中の指導に十分活用できる。総合的に見て、指導計画と質問は十分に良好であるが、材料・道具の詳細がやや不足している点を除けば4点と判断できる。</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>構造化が非常に整っており、序論・本論・結論が明確に区分されている点はAIが生成しやすいパターンです。定型表現として「Học sinh hiểu được」「Rèn kỹ năng」「Phát triển kỹ năng」などのフレーズが頻出し、ポジティブバイアスが見られます。文体は箇条書きと番号付きリストで統一され、文長や語彙の選択も均一に感じられます。具体例として「Chiếc dù kỳ diệu」や「viên phấn」の実験は多くの学生が採用する典型的な内容で、peer_similarity_scoreも0.37と他者と似た構成が示唆されています。これらの特徴から、完全に人間が書いたものとは言い難く、AIテンプレート的な可能性は中程度から高いと判断しました。</t>
+          <t>The answer exhibits a very rigid, textbook‑like structure with clear headings (Kế hoạch dạy học, Các hoạt động chính, ...), repeated bullet points, and a conventional lesson‑plan format that is typical of AI‑generated templates. The language is uniformly formal and lacks stylistic variation—sentences are similar in length and word choice, which is another hallmark of AI output. The content itself is generic and aligns closely with common instructional examples, leading to a moderate similarity with other students' responses (peer_similarity_score 0.37) but a higher similarity to an AI model (ai_similarity_score 0.35). Additionally, the symbolic_score of 1.00 indicates a perfect match to known AI template patterns. Combined, these factors suggest a fairly high likelihood that the answer is a template‑style generation from an AI, hence a score of 0.68.</t>
         </is>
       </c>
     </row>
@@ -816,20 +816,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>回答は不安軽減と創造性促進の両方を具体的に示している / 複数の実行可能なサポート手法（例示、質問、試行錯誤、称賛）が網羅されている / 例を直接見せる以外の工夫（ヒントやオープン質問）が明確に提示されている</t>
+          <t>回答は不安軽減と創造性促進の両方に対して多角的かつ具体的な支援策を提示している / 例示・ヒント・フィードバックを組み合わせ、実際に行える実践方法が明確に示されている</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>受験者の回答は、STEAM活動における生徒の不安を和らげつつ創造性を促す具体的かつ実践的な支援方法を豊富に示している。まず、複数の多様な例を用意し、単なる模範ではなくヒントとして位置づけることで、模倣への恐怖を減らし個性を尊重する姿勢を明示している。次に、オープンな質問で生徒のアイデアを引き出し、試行錯誤を奨励することで創造的思考を刺激している。さらに、試作段階で小さな要素を作るよう促し、失敗を恐れずに学習できる環境を整えている。最後に、努力とアイデアを称賛することで自己肯定感を高め、継続的な創造活動へとつなげている。これらの要素はすべて具体的で実行可能であり、例を直接見せる以外の工夫も明確に示されているため、5点の評価に相当する。</t>
+          <t>受験者は生徒の不安を和らげつつ創造性を促すための具体策を豊富に挙げており、例示以外にもオープンクエスチョン、試作・修正、励ましの声掛けなど多面的なアプローチを示している。例として「準備多様な例」「オープンクエスチョン」「小さな試作」「試行錯誤を歓迎」「努力とアイデアを褒める」など、実際に教室で使える具体的手法が順序立てて説明され、学習者が安心して自分の作品を作れる環境を作る方法が詳細に示されている。これらは5点基準に完全に合致し、評価に優れた回答と判断できる。</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>構造化が非常に整っており、序論・本論・結論が明確に分かれ、段落ごとに論点が整理されている点がAIらしい。定型表現が多用され、特に「それは非常に普通です」「それは非常に普通です」といった繰り返しが目立つ。文体は比較的一様で、語彙の選択も限定的で、文長もほぼ同じ傾向が見られる。具体例が典型的で、他の学生の回答と類似度が高い点もAI生成の可能性を示唆する。</t>
+          <t>構造化が明確で序論・本論・結論が整いすぎている点、AIが好む定型表現（"…こうして、…" や "…に挑戦しよう" など）が頻出し、文体も同質的で長文のパターンが多い。さらに、具体例が一般的すぎて他の学生と類似しており、AIテンプレート的な特徴が強く出ているため、完全に人間らしいとは言い難い。</t>
         </is>
       </c>
     </row>
@@ -855,24 +855,24 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>活動は創造的で実現可能性が高く、リサイクルの意義が明確に示されている / 製品作成のプロセスが具体的かつ詳細に記述され、教育的意義も十分に伝わっている / 授業設計は学年・科目に適しており、実践的な学習体験を提供できる</t>
+          <t>活動は創造的で実現可能、具体的な材料と手順を示している / リサイクルの重要性と環境保護のメッセージが明確に表現されている / トピックと授業設計は学年に適しており、実践的な学習を促進する / ただしプロセス詳細がやや簡略化されている点が満点を妨げる</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>受験者はリサイクル素材を用いて交通手段や動物の模型を作る創造的な活動を提案し、具体的な材料・手順・完成品の用途を詳細に示している。リサイクルの重要性を「Tái chế, bảo vệ môi trường」と明示し、設計思考や協働スキルを育む教育的意義も明確に示している。授業の構成（導入・探究・実践・発表）が段階的で実践的であり、学年・科目への適合性も想定できる。これらの点から5点と評価する。</t>
+          <t>回答はリサイクル素材（紙、段ボール、古いカレンダー）を用いて交通手段や動物の模型を作成するという創造的かつ実現可能な活動を提案している。材料と手順（切り取り、接着、塗装）を具体的に示し、教育的意義としてデザイン思考や協働学習を挙げている。リサイクルと環境保護のメッセージも明確に伝わり、学年・科目に適した授業設計を提示している。しかし、手順の細部や安全対策の説明がやや省略されているため、5点満点には至らない。総合的に見て4点が妥当である。</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>回答は序論・本論・結論が明確に区分され、箇条書きや番号付きの構造が整っている点でAIがよく用いるテンプレート的なフォーマットに近い。定型表現（例：『…を行う』、『…を実施する』）が頻繁に登場し、ポジティブバイアス（『創造的』『環境保護』など）も多用されている。文体は比較的均一で、文長や語彙の選択に大きな変化がなく、AIが生成しやすいパターンに合致している。さらに、具体例として挙げられている「車両」「動物」などは多くの学生が選びやすい典型的なテーマで、peer_similarity_score が 0.33 であることから他の回答と類似している可能性が示唆される。総合すると、AIによるテンプレート的生成の可能性は中程度と判断できる。</t>
+          <t>構造化がやや整っているものの、序論・本論・結論の明確な区分はなく、ほぼ列挙型の構成である。定型表現（"Khởi động"、"Khám phá"、"Luyện tập"など）はAI的なパターンが見られるが、同時に一般的な教材用語であるためポジティブバイアスは限定的。文体は均一で、長文が多いものの語彙は限定的で機械的な印象を与える。具体例（交通手段・動物のリスト）は典型的で、他学生と似た内容が多い。これらを総合すると、AI生成テンプレート的解答の可能性は中程度（0.45）と判断する。</t>
         </is>
       </c>
     </row>
@@ -902,20 +902,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>定義が明確で正確に説明されている / 具体例が1つだけだが詳細に記述され、影響が具体的に示されている / 論理的で一貫性があるが、複数例が不足しているため4点</t>
+          <t>定義は明確で正確に述べられているため5点 / 学生への影響は具体例が1つだけで、詳細はあるが複数例が不足しているため4点</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>回答は「体験学習」を「学生が実際に活動に参加し、観察・実験・問題解決を通じて知識を獲得する方法」と明確に定義している。例として「豆を植えて育てる」活動を挙げ、観察・記録・協働の効果を具体的に示している。論理展開は一貫しており、教育的意義も十分に伝わっている。ただし、例が1つに限定されている点がやや不足と判断し、5点ではなく4点と評価した。</t>
+          <t>回答では「体験学習」を「直に活動に参加し、観察・実験で知識を得る」と定義し、概念が正確に把握できている点が評価できる。影響に関しては、豆の種を植え、育成を観察する具体例を挙げ、興味・記憶・協働などの効果を説明している。しかし、評価基準では「複数の具体例とともに詳しく説明」することが5点の条件であるため、1つの例のみでは足りず4点とする。論理の流れは一貫しているが、さらに別の事例を追加すれば5点へと上がる可能性がある。</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>回答は序論・本論・結論の構造が整っているものの、極端に公式的ではなく、自然な語彙と文体が見られる。定型表現は一部（例：『được trực tiếp tham gia』、『học sinh trồng cây từ hạt đậu』）で、AIがよく使うフレーズに近いが、全体としては人間らしい語彙選択と文長のバリエーションがある。具体例は一般的で他の学生と似た内容が多い点がAIテンプレート的傾向を示唆するが、AI模範解答との類似度が0.37と中程度であるため、完全にAI生成とは判断しにくい。</t>
+          <t>The response shows a modest degree of AI‑like characteristics. It is reasonably well‑structured with an opening statement, a main body, and an illustrative example, which is a typical pattern for AI‑generated answers. The phrasing is somewhat formal and contains a few repeated expressions that could be indicative of a templated style, but it is not overly rigid. The vocabulary and sentence length are fairly uniform, and the example of students planting beans is a generic scenario that many students might use, reflecting some peer similarity. The symbolic_score of 1.0 suggests a high density of formal markers, yet the overall content remains natural and context‑appropriate. Thus the likelihood of this being a template‑based AI answer is moderate, leading to a score of 0.4.</t>
         </is>
       </c>
     </row>
@@ -945,20 +945,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>活動内容が実用的で、授業開始時に行う具体的な流れが明確に示されている / 育成したいスキルが具体的に列挙され、教育的意義もSTEAMの観点から説明されている / 独創性はやや一般的だが、実際の授業で実行可能で効果が期待できる点が評価される</t>
+          <t>活動内容が具体的で実用的に提示されている / 育成するスキルが明確に示され、教育的意義が伝わる / 創造性はやや不足だが、実践的な提案として十分に機能している</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>回答は「Chia sẻ cùng Cô」という授業開始時の共有活動を提案し、学生が順番に興味や課題、アイデアを発表する流れを具体的に示している。活動の実用性と簡便さが強調され、実際に授業で実行できる点が高く評価できる。さらに、コミュニケーション、批判的思考、主体性・創造性といったスキルを明確に列挙し、STEAM教育の精神に沿った学習効果を説明している。独創性はやや一般的な共有活動に留まるものの、教育的意義と実践性が十分に示されているため、5点ではなく4点と判断した。</t>
+          <t>回答は「共有活動」を具体的に提示し、授業開始時に学生が順番に興味・課題・アイデアを発表する流れを明示している。活動の実用性と明確な手順が評価基準に合致し、コミュニケーションや批判的思考、主体性と創造性の育成を具体例で示している。STEAMの精神に沿った学びと生活の結びつきも言及しており、教育的意義が明確に説明されている。創造性の点で完全に優れたものではないが、実践的で実現可能な提案として十分に優秀と判断できる。</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>構造化が比較的整っており、序論・本論・結論の区分が明確である点、定型表現（"được thực hiện", "đúng với tinh thần" など）やポジティブバイアスが散見される点、文体の均一性（文長がほぼ同程度、語彙の選択が限定的）から、AIが生成したテンプレート的回答の可能性は中程度と評価される。</t>
+          <t>回答は序論・本論・結論が明確に区分され、語彙が統一されているため構造化が強く、AIが好むテンプレート構成に近い。定型表現（「hình ảnh minh họa」「đúng với tinh thần giáo dục STEAM」など）が多用され、ポジティブバイアスが感じられる。文の長さや語彙の選び方に均一性があり、他の学生と類似した具体例（学級のルールや共有活動）が示されている点もAIがよく作る典型的な例と重なる。AI類似度が0.25、仲間間類似度が0.27で、完全に人間らしい独自性は低めだが、完全にAIであるとは言い切れないため、0.45という中程度のスコアと判断した。</t>
         </is>
       </c>
     </row>
@@ -984,16 +984,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>指導計画が具体的で実践的 / 質問が具体的で思考を促す / 材料選定が適切で実用的</t>
+          <t>授業計画が具体的でグループ活動と段階的手順を示している / 投げかける質問は具体的で生徒の思考を促す / 使用材料は実践的で多様性がある</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>受験者は授業の流れを明確に示し、グループ活動、ウォームアップ、設計・試作・評価の各段階を具体的に記述している。質問は「なぜ」「どのように」といった具体的な問いで生徒の思考を深め、材料は紙、厚紙、ゴムバンド、吸管など実際に手に入る簡易素材を挙げている。これらはすべてSTEAM教育の実践に即しており、評価基準のすべてを満たしている。</t>
+          <t>受験者の回答は指導計画が明確で、ウォームアップから実験、検証・改善までの流れを示している。質問は具体的で実際に体験したことを問うことで思考を刺激し、材料も紙・硬紙・布・泡など実際に使えるものを挙げている。細部で時間配分や評価基準が不足しているものの、全体として現実的でSTEAMの観点にも合致しているため5点ではなく4点と評価する。</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>構造化が非常に整っており、序論・本論・結論が明確に区分されている点がAI生成の典型的な特徴です。定型表現として「Tôi sẽ thiết kế kế hoạch bài dạy của tôi」「Các em được khuyến khích」など、AIが頻繁に使用するフレーズが散見されます。文体の均一性も高く、文長や語彙の選択がほぼ同一パターンで繰り返されているため、自然な人間の書き方よりも機械的に感じられます。さらに、具体例が「紙、硬紙、ゴムバンド、吸管、柔らかいスポンジ、テープ、ニロン」など、他の学生の回答と重複しやすい一般的な素材リストである点も、テンプレート的な回答である可能性を示唆します。総合的に見ると、AIによるテンプレート的生成の可能性は中程度と評価されます。</t>
+          <t>The answer contains a very clear, modular structure with a distinct opening, body, and closing, which is typical of AI-generated templates. The phrasing includes frequent positive-bias expressions such as "đạt hiệu quả", "hợp lý", and "đầy sáng tạo", common in AI outputs. The style is uniform throughout: sentences are of similar length, and the vocabulary is repetitive, lacking the natural variation seen in human writing. Moreover, the examples and activity descriptions are generic and align closely with common lesson‑plan templates, reflected in the moderate AI and peer similarity scores (0.37 each) and a high symbolic score of 1.0 indicating strong adherence to formal writing patterns. Overall, these features suggest a moderate likelihood that the answer was produced by a generative AI.</t>
         </is>
       </c>
     </row>
@@ -1031,20 +1031,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>回答は不安解消と創造性促進の両方を具体的に示している / 複数の実行可能なサポート手法（例示、試行錯誤、仲間演示、個別称賛）が挙げられている / 例を直接見せる以外の工夫（安全環境、自由な発想の奨励）が明確に示されている</t>
+          <t>具体的に多様な例を提示しつつ、個別創造を尊重する方法を示した / 不安緩和のために安全な試行錯誤環境と、個人のアイデアを肯定する支援を複数提案 / 実行可能な手法（例示の多様化、同級生のデモ、フィードバック強化）が明確に示されている</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>受験者の回答は、まず「例を見せる」ことを提案しつつ、強制せずに個々の創造性を尊重する姿勢を示している。さらに「安全な環境」「試行錯誤の奨励」「多様な例示」「仲間の演示」「個人のアイデアを称賛」など、具体的かつ実行可能なサポート手法を複数挙げている。これらは不安を和らげつつ創造性を促進するという評価基準をすべて満たしており、5点に相当する。</t>
+          <t>受験者は「例を見せる」要望に対して、単に例を提示するだけでなく、学習者が自分のアイデアを自由に発展させられるよう多様な例を示し、創造性を刺激する工夫を具体的に示している。さらに「安全な試行錯誤」や「個人の表現を肯定するフィードバック」といった不安緩和策を複数挙げ、実際に教室で使える具体的な手法を提示している点で、評価基準の「具体性・実行可能性」「創造性促進」両方を十分に満たしている。したがって5点と評価する。</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>回答は序論・本論・結論が明確に区切られ、構造が整いすぎている点がAIらしさを示唆します。さらに、"…để các em tham khảo…"や"…mỗi bạn đều có thể…"といった定型表現が頻出し、ポジティブバイアスが強い印象です。文体は比較的均一で、語彙の幅が限定的、文長もほぼ同じパターンが続くため、自然な人間の書き方よりも機械的に見えます。具体例も「多様な例を示す」「安全な環境を作る」など、他の学生と重複しやすい典型的な内容で、peer_similarity_scoreが0.38と高めです。これらの要素を総合すると、完全にAIが書いたテンプレート的回答ではないものの、AIの特徴が中程度に見られると判断しました。</t>
+          <t>構造化が非常に整っており、序論・本論・結論が明確に区切られている点がAI的。定型表現（"đây là một vài ví dụ", "mỗi bạn đều có thể..." 等）が頻出し、ポジティブバイアスの言い回しが多い。文体の均一性も高く、句読点や語彙の幅が限定的で文長がほぼ同一である。具体例はSTEAM教育における一般的な指導法を網羅しており、他の学生の回答と類似する要素が多いため、他者と重複しやすい。これらの特徴はAIが生成するテンプレート回答とよく合致する。</t>
         </is>
       </c>
     </row>
@@ -1074,20 +1074,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>活動は創造的で実現可能、具体的な材料と手順を示している / リサイクルの意義が質問と学習目標で明確に伝わっている / 授業設計は学年・科目に適合し、環境教育と創造性を統合している</t>
+          <t>創造的かつ実現可能なリサイクル製品の設計が具体的に示されている。 / 製造プロセスと材料が詳細に記述され、教育的意義と環境意識が明確に伝わっている。</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>受験者は「プラスチックボトルからのペンケース作り」という具体的かつ実行可能なプロジェクトを提示し、材料・手順を詳細に記述している。リサイクルの重要性を問いかけと学習目標で効果的に伝え、学年・科目に適した授業構成を示している。さらに、創造性・問題解決・環境意識の育成と学際的連携を明示しており、評価基準の全項目を満たしている。</t>
+          <t>受験者は、プラスチックボトルを利用した鉛筆ケースの作成を具体的に示し、使用材料、手順、調整点を詳細に記載している。授業の導入質問と学習目標によりリサイクルの意義が効果的に伝えられ、学年・科目への適応性も高い。さらに、協働、創造性、環境意識の育成と多学科連携を示すことで、教育的価値が十分に担保されている。これらの要素がすべて満たされているため、最高点を付与するに相応しい。</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>回答は序論・本論・結論が明確に区分され、箇条書きや見出しが多用されている点で構造化が過剰に感じられます。定型表現（例：『Chúng ta đã học cách tái chế…』）やポジティブバイアスが散見され、文体も比較的均一で語彙の幅が限定的です。具体例は他の学生と類似しやすい一般的な内容で、AIが生成しやすいテンプレート的パターンに近いと判断されます。ただし、AI模範解答との類似度が低く（0.25）受験者間の類似度も中程度（0.33）であるため、完全にAI生成とは言い切れず、やや中間的なAIっぽさ（0.55）と評価しました。</t>
+          <t>構造化: 回答は序論・本論・結論が極めて明確に区分され、章立てと箇条書きで整った構造を示しているため、AIのテンプレート化が疑われる。 定型表現: 例として「Mục tiêu: Học sinh hiểu được lợi ích…」「Kỹ năng và năng lực phát triển: Tư duy sáng tạo &amp; giải quyết vấn đề」など、AIがよく使用するフレーズやポジティブバイアス的表現が多い。 文体の均一性: 文章の長さや語彙は比較的一様で、専門用語や慣用表現が少なく、全体的にテンプレート的な文体が目立つ。 具体例の典型的すぎる点: 具体例は「Làm hộp bút từ chai nhựa cũ」という共通テーマで、他の学生の回答と類似度が0.33と示されているように、内容が典型的であるため、生成AIの一般的な例題に近い。 以上の点から、AIが書いた可能性は中程度に高いと判断し、スコアを0.6としました。</t>
         </is>
       </c>
     </row>
